--- a/hotrod/docs/research/datetime-data-types.xlsx
+++ b/hotrod/docs/research/datetime-data-types.xlsx
@@ -20,12 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Type (UTC, Local, TZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="79">
+  <si>
+    <t xml:space="preserve">Database Data Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeline (Global, Local, or Zoned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stored in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best fit Java Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL-92 Standard</t>
   </si>
   <si>
     <t xml:space="preserve">DATE</t>
@@ -34,67 +52,213 @@
     <t xml:space="preserve">Local</t>
   </si>
   <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.util.Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 ms</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIME</t>
   </si>
   <si>
-    <t xml:space="preserve">UTC/Local</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF009900"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Local</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">java.sql.Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 day</t>
   </si>
   <si>
     <t xml:space="preserve">TIMESTAMP</t>
   </si>
   <si>
+    <t xml:space="preserve">java.sql.Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ms</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIME WITH TIME ZONE</t>
   </si>
   <si>
+    <t xml:space="preserve">java.sql.Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ns</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIMESTAMP WITH TIME ZONE</t>
   </si>
   <si>
     <t xml:space="preserve">Oracle</t>
   </si>
   <si>
+    <t xml:space="preserve">1 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 s - 1 ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIMESTAMP WITH LOCAL TIME ZONE</t>
   </si>
   <si>
+    <t xml:space="preserve">Local TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant</t>
+  </si>
+  <si>
     <t xml:space="preserve">DB2</t>
   </si>
   <si>
+    <t xml:space="preserve">OffsetTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 s - 1 ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YearMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 month</t>
+  </si>
+  <si>
     <t xml:space="preserve">PostgreSQL</t>
   </si>
   <si>
-    <t xml:space="preserve">TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTAMPTZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIME WITHOUT TIME ZONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMETZ</t>
+    <t xml:space="preserve">ZonedDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP [WITHOUT TIME ZONE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 s - 1 µs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP WITH TIME ZONE / TIMESTAMPTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaces:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME [WITHOUT TIME ZONE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TemporalAccessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME WITH TIME ZONE*1 / TIMETZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChronoLocalDate</t>
   </si>
   <si>
     <t xml:space="preserve">SQL Server</t>
   </si>
   <si>
+    <t xml:space="preserve">ChronoLocalDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATETIME</t>
   </si>
   <si>
+    <t xml:space="preserve">3 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChronoZonedDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMALLDATETIME</t>
   </si>
   <si>
+    <t xml:space="preserve">1 minute</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATETIME2</t>
   </si>
   <si>
+    <t xml:space="preserve">1 s - 100 ns</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATETIMEOFFSET</t>
   </si>
   <si>
     <t xml:space="preserve">MariaDB</t>
   </si>
   <si>
+    <t xml:space="preserve">1s - 1 µs</t>
+  </si>
+  <si>
     <t xml:space="preserve">YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">UTC</t>
+    <t xml:space="preserve">MySQL</t>
   </si>
   <si>
     <t xml:space="preserve">SAP ASE</t>
@@ -103,19 +267,25 @@
     <t xml:space="preserve">BIGDATETIME</t>
   </si>
   <si>
+    <t xml:space="preserve">1 µs</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIGTIME</t>
   </si>
   <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
+    <t xml:space="preserve">TIMESTAMP [WITHOUT TIME ZONE] / DATETIME / SMALLDATETIME</t>
+  </si>
+  <si>
     <t xml:space="preserve">HyperSQL</t>
   </si>
   <si>
-    <t xml:space="preserve">TIME WITH WITH TIME ZONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*1 PostgreSQL docs consider this a semi-obsolete data type, and recommends avoid using it.</t>
   </si>
 </sst>
 </file>
@@ -125,11 +295,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,6 +316,41 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009900"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,13 +395,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -207,6 +445,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF009900"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -215,358 +513,1075 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C58"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.1581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.8163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.9438775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.33163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>6</v>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="7"/>
+      <c r="I13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>6</v>
+      <c r="I14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="B15" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>13</v>
+      <c r="D17" s="0"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>7</v>
+      <c r="D23" s="0"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>20</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>21</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>2</v>
-      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="B35" s="0" t="s">
-        <v>2</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="0"/>
+      <c r="J36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="B37" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="B40" s="0" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="B43" s="0" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="B46" s="0" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="B50" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="B51" s="0" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="0"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/hotrod/docs/research/datetime-data-types.xlsx
+++ b/hotrod/docs/research/datetime-data-types.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="83">
   <si>
     <t xml:space="preserve">Database Data Type</t>
   </si>
@@ -31,12 +31,15 @@
     <t xml:space="preserve">Timeline (Global, Local, or Zoned)</t>
   </si>
   <si>
+    <t xml:space="preserve">Accepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preserves</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stored in</t>
   </si>
   <si>
-    <t xml:space="preserve">Best fit Java Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Java Type</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LocalDate</t>
   </si>
   <si>
     <t xml:space="preserve">java.util.Date</t>
@@ -135,33 +135,42 @@
     <t xml:space="preserve">1 s</t>
   </si>
   <si>
+    <t xml:space="preserve">LocalTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 s - 1 ns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset or TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">LocalDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">LocalTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 s - 1 ns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTC</t>
+    <t xml:space="preserve">TIMESTAMP WITH LOCAL TIME ZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB2</t>
   </si>
   <si>
     <t xml:space="preserve">OffsetDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">TIMESTAMP WITH LOCAL TIME ZONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB2</t>
-  </si>
-  <si>
     <t xml:space="preserve">OffsetTime</t>
   </si>
   <si>
@@ -247,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">DATETIMEOFFSET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset</t>
   </si>
   <si>
     <t xml:space="preserve">MariaDB</t>
@@ -438,12 +450,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -515,24 +527,23 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.33163265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.76530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,12 +562,14 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>1</v>
@@ -564,23 +577,23 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="0"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -600,8 +613,10 @@
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>17</v>
@@ -620,8 +635,10 @@
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>20</v>
@@ -640,8 +657,10 @@
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>23</v>
@@ -660,37 +679,40 @@
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>24</v>
@@ -701,22 +723,21 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>18</v>
@@ -727,22 +748,25 @@
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>24</v>
@@ -750,25 +774,30 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="I13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -779,25 +808,24 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>13</v>
@@ -814,16 +842,15 @@
         <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -837,65 +864,64 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
       <c r="G17" s="5"/>
       <c r="I17" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>24</v>
@@ -903,197 +929,201 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
+      <c r="F22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
       <c r="G23" s="5"/>
       <c r="I23" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J28" s="0"/>
@@ -1103,40 +1133,42 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
       <c r="G30" s="5"/>
       <c r="J30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J31" s="0"/>
     </row>
@@ -1145,28 +1177,32 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J33" s="0"/>
     </row>
@@ -1175,53 +1211,63 @@
         <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
+      <c r="E34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="J34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="0"/>
       <c r="G36" s="0"/>
       <c r="J36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,27 +1275,31 @@
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,92 +1307,108 @@
         <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>31</v>
+      <c r="E40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="0"/>
       <c r="G42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,61 +1419,69 @@
         <v>21</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="0"/>
       <c r="G49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,22 +1494,26 @@
       <c r="D52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>31</v>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,39 +1526,49 @@
       <c r="D54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,22 +1581,26 @@
       <c r="D58" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>31</v>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,25 +1613,33 @@
       <c r="D60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>31</v>
+      <c r="E60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,10 +1650,12 @@
         <v>27</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,29 +1666,33 @@
         <v>24</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="0"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D66" s="0"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
       <c r="G66" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
